--- a/WppRegPack/TestResource/SysTest/DS_CHN_SYSTEST.xlsx
+++ b/WppRegPack/TestResource/SysTest/DS_CHN_SYSTEST.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Management" sheetId="13" r:id="rId2"/>
-    <sheet name="JobCreation" sheetId="3" r:id="rId3"/>
-    <sheet name="SubJobs" sheetId="14" r:id="rId4"/>
-    <sheet name="JobBudgetCreation" sheetId="10" r:id="rId5"/>
-    <sheet name="CreateExpense" sheetId="4" r:id="rId6"/>
-    <sheet name="CreateTimesheet" sheetId="9" r:id="rId7"/>
-    <sheet name="EmployeeCreation" sheetId="5" r:id="rId8"/>
-    <sheet name="UserCreation" sheetId="6" r:id="rId9"/>
-    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId10"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId11"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId12"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId2"/>
+    <sheet name="Data Management" sheetId="13" r:id="rId3"/>
+    <sheet name="JobCreation" sheetId="3" r:id="rId4"/>
+    <sheet name="SubJobs" sheetId="14" r:id="rId5"/>
+    <sheet name="JobBudgetCreation" sheetId="10" r:id="rId6"/>
+    <sheet name="CreateExpense" sheetId="4" r:id="rId7"/>
+    <sheet name="CreateTimesheet" sheetId="9" r:id="rId8"/>
+    <sheet name="EmployeeCreation" sheetId="5" r:id="rId9"/>
+    <sheet name="UserCreation" sheetId="6" r:id="rId10"/>
+    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId11"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId12"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="548">
   <si>
     <t>Description</t>
   </si>
@@ -1637,7 +1638,49 @@
     <t>1321_TestEmployeeAutomation 21October2019 17:28:15</t>
   </si>
   <si>
-    <t>1307200390</t>
+    <t>Vendor Number</t>
+  </si>
+  <si>
+    <t>UnitPrice_1</t>
+  </si>
+  <si>
+    <t>UnitPrice_2</t>
+  </si>
+  <si>
+    <t>UnitPrice_3</t>
+  </si>
+  <si>
+    <t>UnitPrice_4</t>
+  </si>
+  <si>
+    <t>UnitPrice_5</t>
+  </si>
+  <si>
+    <t>UnitPrice_6</t>
+  </si>
+  <si>
+    <t>UnitPrice_7</t>
+  </si>
+  <si>
+    <t>UnitPrice_8</t>
+  </si>
+  <si>
+    <t>UnitPrice_9</t>
+  </si>
+  <si>
+    <t>UnitPrice_10</t>
+  </si>
+  <si>
+    <t>131885</t>
+  </si>
+  <si>
+    <t>1307200397</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>1307100044</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2074,6 +2117,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2357,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,7 +2418,7 @@
       <c r="A1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="83">
+      <c r="B1" s="85">
         <v>1307</v>
       </c>
       <c r="C1" s="83">
@@ -2512,6 +2559,99 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="32" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="58">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="59">
+        <v>130710080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="59">
+        <v>1307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
@@ -3358,7 +3498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -3829,7 +3969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -3995,10 +4135,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FK7"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1307</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FK8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,8 +4533,8 @@
       <c r="A2" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>533</v>
+      <c r="C2" s="67" t="s">
+        <v>545</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>320</v>
@@ -4376,6 +4701,14 @@
       </c>
       <c r="K7" s="32" t="s">
         <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:167" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4384,7 +4717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4682,7 +5015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4890,7 +5223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5160,7 +5493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR9"/>
   <sheetViews>
@@ -5627,7 +5960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -5960,7 +6293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -6633,97 +6966,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="32" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="32"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="58">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="59">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="59">
-        <v>130710080</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="59">
-        <v>1307</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>